--- a/mt_results_unformatted.xlsx
+++ b/mt_results_unformatted.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,73 +377,173 @@
           <t>AL</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>taxonomy9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pLW-20</t>
+          <t>MM2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MM2</t>
+          <t>Methyloterricola</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methylovulum</t>
+          <t>Methylomagnum</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Methyloterricola</t>
+          <t>Methylosarcina</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methylotenera</t>
+          <t>pLW-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methylosarcina</t>
+          <t>Methylobacterium-Methylorubrum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MOB_IIa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Methyloparacoccus</t>
+          <t>Methyloglobulus</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
@@ -453,6 +553,11 @@
           <t>Methylomonas</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -460,52 +565,72 @@
           <t>Methylomicrobium</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Methylomagnum</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Methylovulum</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Methyloglobulus</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Methyloparacoccus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methylocystis</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Methylobacter</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methyloceanibacter</t>
+          <t>Candidatus Methanoperedens</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -513,59 +638,104 @@
           <t>+</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>+</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ANME</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Methylocaldum</t>
+          <t>Candidatus Methylospira</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Methylobacterium-Methylorubrum</t>
+          <t>Methylocaldum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methylobacter</t>
+          <t>Methyloceanibacter</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MOB_II</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crenothrix</t>
+          <t>Methylotenera</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Candidatus Methylospira</t>
+          <t>Crenothrix</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -573,21 +743,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MOB_I</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Candidatus Methanoperedens</t>
+          <t>Methylocystis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MOB_IIa</t>
         </is>
       </c>
     </row>
